--- a/CashFlow/POOL_cashflow.xlsx
+++ b/CashFlow/POOL_cashflow.xlsx
@@ -77,7 +77,7 @@
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="14.3"/>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2999000000.0</v>
+        <v>-85776000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2880000000.0</v>
+        <v>-42447000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2016008000.0</v>
+        <v>16775000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1477215000.0</v>
+        <v>66414000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>972041000.0</v>
+        <v>-42815000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-14165000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>103579000.0</v>
+        <v>1516000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-9212000.0</v>
+        <v>1399000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-14482000.0</v>
+        <v>1114133000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>67510000.0</v>
+        <v>847320000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>271745000.0</v>
+        <v>532871000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>3033000.0</v>
